--- a/RelatorioDiasSemanaComMaisConversoesAno_2023_Mes_10.xlsx
+++ b/RelatorioDiasSemanaComMaisConversoesAno_2023_Mes_10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -29,12 +29,18 @@
     <t>Segunda-feira</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>31/10/2023</t>
   </si>
   <si>
     <t>Terça-feira</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>24/10/2023</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
     <t>26/10/2023</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>06/10/2023</t>
   </si>
   <si>
@@ -54,6 +63,9 @@
   </si>
   <si>
     <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>10/10/2023</t>
@@ -118,39 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -180,113 +162,113 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n" s="2">
-        <v>7.0</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n" s="3">
-        <v>5.0</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n" s="4">
-        <v>5.0</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n" s="5">
-        <v>5.0</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n" s="6">
-        <v>3.0</v>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n" s="7">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n" s="8">
-        <v>2.0</v>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n" s="9">
-        <v>2.0</v>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="C10" t="n" s="10">
-        <v>2.0</v>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n" s="11">
-        <v>2.0</v>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
